--- a/biology/Médecine/Liste_d'abréviations_et_de_symboles_en_chimie/Liste_d'abréviations_et_de_symboles_en_chimie.xlsx
+++ b/biology/Médecine/Liste_d'abréviations_et_de_symboles_en_chimie/Liste_d'abréviations_et_de_symboles_en_chimie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste répertorie des abréviations et des symboles rencontrés en chimie (dans les catalogues, fiches techniques, étiquetage, etc.) ; certains concernent la pharmacie et la physique. Pour les symboles des éléments chimiques, voir Liste des éléments chimiques.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>R- : préfixe, concerne la configuration d’un centre de chiralité ; voir la nomenclature Cahn-Ingold-Prelog.
 S- : préfixe, concerne la configuration d’un centre de chiralité ; voir la nomenclature Cahn-Ingold-Prelog.
@@ -557,7 +571,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
  : réaction chimique équilibrée
-[i] : concentration du constituant i ou molarité[1] (symbole c). Unité pratique : mol/l
+[i] : concentration du constituant i ou molarité (symbole c). Unité pratique : mol/l
 %m : pourcentage massique
 %vol : pourcentage volumique
         ↗
@@ -574,7 +588,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,12 +606,14 @@
           <t>α-ω</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
         ϕ
     {\displaystyle \phi }
- : fraction volumique[2] (sans unité)
+ : fraction volumique (sans unité)
         ρ
     {\displaystyle \rho }
  : masse volumique (mass density ou density (en)) (unité SI : kg/m3)
@@ -614,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,7 +648,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>A : nombre de masse
 Å : symbole de l'ångström (unité non-SI)
@@ -654,7 +672,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +690,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>BP :
  boiling point (« point d'ébullition »)
@@ -686,7 +706,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -704,7 +724,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>c : concentration molaire ou molarité (unité pratique : mol/L). Voir aussi Molalité (symboles m ou b).
 CAS : numéro CAS (Chemical Abstracts Service (en))
@@ -725,7 +747,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -743,7 +765,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>d : densité (relative density ou specific gravity (en))
 DAB : Pharmacopée allemande (de) (Pharmacopée allemande)
@@ -765,7 +789,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +807,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>EC No : numéro EC, voir la nomenclature EC des enzymes.
 Exxx : code numérique d’un additif alimentaire autorisé au niveau européen
@@ -799,7 +825,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -817,7 +843,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>FDS : fiche de données de sécurité (MSDS, Material Safety Data Sheet (en))
 FIP : Fédération internationale pharmaceutique</t>
@@ -830,7 +858,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -848,7 +876,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>GC ou CPG : chromatographie en phase gazeuse (Gas chromatography (en))
 (GC) ou (CPG) : teneur par chromatographie en phase gazeuse
@@ -865,7 +895,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -883,7 +913,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>HPLC : chromatographie en phase liquide à haute performance</t>
         </is>
@@ -895,7 +927,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -913,7 +945,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>ICP : torche à plasma (Inductively Coupled Plasma (en))
 ILO : Indice limite d'oxygène (LOI, Limiting Oxygen Index (en))
@@ -930,7 +964,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -948,7 +982,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lit. : littérature
 lyophil. : lyophilisé (forme facilement soluble)</t>
@@ -961,7 +997,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -979,7 +1015,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>M : masse molaire (en g/mol)
 m : masse (unité SI : kg)
@@ -997,7 +1035,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1015,7 +1053,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>N : nombre de neutrons
 NA ou L : symboles du nombre d'Avogadro
@@ -1030,7 +1070,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1048,7 +1088,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>p.a. : « pro analysi » (la), qualité chimique pour analyse
 pce : partie pour cent en élastomère, en formulation
@@ -1073,7 +1115,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1091,7 +1133,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>q.s.p. : quantité suffisante pour</t>
         </is>
@@ -1103,7 +1147,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1121,7 +1165,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>R : phrases de risque (phrases R)
 REACH : enregistrement, évaluation et autorisation des produits chimiques (Registration, evaluation and authorisation of chemicals (en))
@@ -1137,7 +1183,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1155,7 +1201,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>S : conseils de prudence (phrases S)
 sec. : secondaire
@@ -1175,7 +1223,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1193,9 +1241,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>t ou Θ : température Celsius[3]
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>t ou Θ : température Celsius
 t½ : demi-vie
 TA : analyse thermique
 TE ou bp ou Kp : point d'ébullition (boiling point (en)) (Kochpunkt (de))
@@ -1215,7 +1265,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,9 +1283,11 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>u : unité de masse atomique unifiée ou dalton (unité non-SI, symbole Da). Le dalton est souvent utilisé en biochimie et en biologie moléculaire[4].
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>u : unité de masse atomique unifiée ou dalton (unité non-SI, symbole Da). Le dalton est souvent utilisé en biochimie et en biologie moléculaire.
 USP : Pharmacopée américaine (Pharmacopée américaine)</t>
         </is>
       </c>
@@ -1246,7 +1298,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1264,7 +1316,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>VZ : indice de saponification (Verseifungszahl (de))</t>
         </is>
@@ -1276,7 +1330,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1294,7 +1348,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>w : fraction massique (sans unité)</t>
         </is>
@@ -1306,7 +1362,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1324,7 +1380,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>x : fraction molaire (sans unité)
 x% : pourcentage molaire ; pourcentage atomique, s’il s’agit d’atomes</t>
@@ -1337,7 +1395,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27abr%C3%A9viations_et_de_symboles_en_chimie</t>
+          <t>Liste_d'abréviations_et_de_symboles_en_chimie</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1355,7 +1413,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Z : numéro atomique</t>
         </is>
